--- a/groups.xlsx
+++ b/groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kodokawai\Desktop\Python\my-projects\discord-bots\can-we-play-together\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9EF0C8-600F-4D50-8815-ED352ACDD57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C474B422-38D3-49C7-8F71-9852F6BA1021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,14 +77,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,27 +96,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -137,21 +114,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -185,26 +153,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -482,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,357 +493,356 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B2" s="3">
         <v>0.125</v>
       </c>
-      <c r="C2" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.125</v>
       </c>
       <c r="B3" s="3">
         <v>0.20833333333333334</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.20833333333333401</v>
       </c>
       <c r="B4" s="3">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.29166666666666702</v>
       </c>
       <c r="B5" s="3">
         <v>0.375</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0.375</v>
       </c>
       <c r="B6" s="3">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0.45833333333333398</v>
       </c>
       <c r="B7" s="3">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.54166666666666696</v>
       </c>
       <c r="B8" s="3">
         <v>0.625</v>
       </c>
-      <c r="C8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0.625</v>
       </c>
       <c r="B9" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0.70833333333333404</v>
       </c>
       <c r="B10" s="3">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.79166666666666696</v>
       </c>
       <c r="B11" s="3">
         <v>0.875</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0.875</v>
       </c>
       <c r="B12" s="3">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0.95833333333333404</v>
       </c>
       <c r="B13" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -891,7 +853,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:I13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -968,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -994,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1032,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1049,7 +1011,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1087,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1096,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1113,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -1151,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1168,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1206,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1223,13 +1185,13 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1258,10 +1220,10 @@
         <v>-1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1270,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1245,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:I13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -1343,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1366,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>-1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1392,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1401,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1412,7 +1374,7 @@
         <v>0.375</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1456,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1476,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -1511,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1531,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1566,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1575,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1586,7 +1548,7 @@
         <v>0.875</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1630,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1650,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -1675,7 +1637,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:I13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>-1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1749,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -1764,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1775,7 +1737,7 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1813,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1822,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1839,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -1877,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1894,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1932,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1949,7 +1911,7 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1987,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1996,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2013,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -2051,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2067,7 +2029,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:I13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2127,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2138,7 +2100,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2147,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -2182,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2202,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -2237,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2257,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2292,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2301,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2312,7 +2274,7 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2356,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2376,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -2411,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2431,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2459,7 +2421,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2501,7 +2463,7 @@
         <v>0.125</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2510,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -2548,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2565,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -2603,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2620,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2658,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2675,7 +2637,7 @@
         <v>0.625</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2713,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2722,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2739,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -2777,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2794,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2832,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
